--- a/results/species-results.xlsx
+++ b/results/species-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/My Drive/My_Drive_Cloud/Drive-Projects/Pepperwood/Pepperwood_git_projects/PepperwoodLFM/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1544A05D-EB16-CD46-ABBF-DCBD7A52F316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{85176E88-F24A-BD4E-8212-D669B0649558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="580" yWindow="760" windowWidth="27640" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="species-results" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
-  <si>
-    <t>study</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>species</t>
   </si>
@@ -50,9 +47,6 @@
   </si>
   <si>
     <t>model2.slp</t>
-  </si>
-  <si>
-    <t>Coastal</t>
   </si>
   <si>
     <t>ADEFAS</t>
@@ -1055,15 +1049,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -1074,991 +1068,913 @@
     <col min="11" max="12" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-5.43</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-3.4936990724930701</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.579219755</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.75601277594072103</v>
+      </c>
+      <c r="J3" s="3">
+        <v>-0.198146957380265</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.81989313623480697</v>
+      </c>
+      <c r="L3" s="3">
+        <v>-0.174221728805702</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-7.17</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-3.6370664647114599</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.43609999999999999</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.68923003114734505</v>
+      </c>
+      <c r="J4" s="3">
+        <v>-0.198146957380265</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.80264892818873301</v>
+      </c>
+      <c r="L4" s="3">
+        <v>-0.17209542538078201</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-5.55</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-8.8930305478121792</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.99767292399999996</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.25394873247931898</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-0.198146957380265</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.46080917448627101</v>
+      </c>
+      <c r="L5" s="3">
+        <v>-0.108822549172874</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-6.48</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-3.9922004939127902</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.52590000000000003</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.68560216604936297</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-0.198146957380265</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.88732816587341301</v>
+      </c>
+      <c r="L6" s="3">
+        <v>-0.135575170516433</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="F7" s="2">
+        <v>-7</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-5.3573104466396604</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.56412316299999998</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.36810811755515499</v>
+      </c>
+      <c r="J7" s="3">
+        <v>-0.198146957380265</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.37260610533238198</v>
+      </c>
+      <c r="L7" s="3">
+        <v>-0.197107360821584</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="1">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-5.43</v>
-      </c>
-      <c r="G2" s="2">
-        <v>-3.4936990724930701</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0.579219755</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0.75601277594072103</v>
-      </c>
-      <c r="J2" s="3">
-        <v>-0.198146957380265</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0.81989313623480697</v>
-      </c>
-      <c r="L2" s="3">
-        <v>-0.174221728805702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F8" s="2">
+        <v>-4.3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-4.1651984813549996</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.67880652799999996</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.522926732090916</v>
+      </c>
+      <c r="J8" s="3">
+        <v>-0.198146957380265</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.27224719159719502</v>
+      </c>
+      <c r="L8" s="3">
+        <v>-0.27761563876256501</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1">
         <v>32</v>
       </c>
-      <c r="E3" s="1">
-        <v>33</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-7.17</v>
-      </c>
-      <c r="G3" s="2">
-        <v>-3.6370664647114599</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.43609999999999999</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.68923003114734505</v>
-      </c>
-      <c r="J3" s="3">
-        <v>-0.198146957380265</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0.80264892818873301</v>
-      </c>
-      <c r="L3" s="3">
-        <v>-0.17209542538078201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="1">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-5.55</v>
-      </c>
-      <c r="G4" s="2">
-        <v>-8.8930305478121792</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.99767292399999996</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.25394873247931898</v>
-      </c>
-      <c r="J4" s="3">
-        <v>-0.198146957380265</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0.46080917448627101</v>
-      </c>
-      <c r="L4" s="3">
-        <v>-0.108822549172874</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2">
-        <v>-6.48</v>
-      </c>
-      <c r="G5" s="2">
-        <v>-3.9922004939127902</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.52590000000000003</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.68560216604936297</v>
-      </c>
-      <c r="J5" s="3">
-        <v>-0.198146957380265</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.88732816587341301</v>
-      </c>
-      <c r="L5" s="3">
-        <v>-0.135575170516433</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-7</v>
-      </c>
-      <c r="G6" s="2">
-        <v>-5.3573104466396604</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.56412316299999998</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.36810811755515499</v>
-      </c>
-      <c r="J6" s="3">
-        <v>-0.198146957380265</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.37260610533238198</v>
-      </c>
-      <c r="L6" s="3">
-        <v>-0.197107360821584</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="F9" s="2">
+        <v>-6.07</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-4.4405333751428904</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.5282</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.55892504814284405</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-0.198146957380265</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.59376580250047295</v>
+      </c>
+      <c r="L9" s="3">
+        <v>-0.18799670119450301</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1">
-        <v>9</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-4.3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>-4.1651984813549996</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.67880652799999996</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.522926732090916</v>
-      </c>
-      <c r="J7" s="3">
-        <v>-0.198146957380265</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.27224719159719502</v>
-      </c>
-      <c r="L7" s="3">
-        <v>-0.27761563876256501</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1">
-        <v>32</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-6.07</v>
-      </c>
-      <c r="G8" s="2">
-        <v>-4.4405333751428904</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.5282</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.55892504814284405</v>
-      </c>
-      <c r="J8" s="3">
-        <v>-0.198146957380265</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0.59376580250047295</v>
-      </c>
-      <c r="L8" s="3">
-        <v>-0.18799670119450301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-6.62</v>
-      </c>
-      <c r="G9" s="2">
-        <v>-2.9910369896866502</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.43330000000000002</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0.833902556668906</v>
-      </c>
-      <c r="J9" s="3">
-        <v>-0.198146957380265</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0.85115458524047605</v>
-      </c>
-      <c r="L9" s="3">
-        <v>-0.19304904797965899</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1">
         <v>29</v>
       </c>
       <c r="F10" s="2">
+        <v>-6.62</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-2.9910369896866502</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.43330000000000002</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.833902556668906</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-0.198146957380265</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.85115458524047605</v>
+      </c>
+      <c r="L10" s="3">
+        <v>-0.19304904797965899</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2">
         <v>-7.1</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <v>-3.6444410214634102</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H11" s="3">
         <v>0.4496</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I11" s="3">
         <v>0.70469466542064096</v>
       </c>
-      <c r="J10" s="3">
-        <v>-0.198146957380265</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="J11" s="3">
+        <v>-0.198146957380265</v>
+      </c>
+      <c r="K11" s="3">
         <v>0.58109833797094601</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L11" s="3">
         <v>-0.23253856643842299</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-3.73</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-4.8438115988870596</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.85900994600000002</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.45415850895628901</v>
+      </c>
+      <c r="J12" s="3">
+        <v>-0.198146957380265</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.44212189128096802</v>
+      </c>
+      <c r="L12" s="3">
+        <v>-0.203651508146418</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1">
+        <v>36</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-4.76</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-5.8439908039150099</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.68189999999999995</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.61854054720733098</v>
+      </c>
+      <c r="J13" s="3">
+        <v>-0.198146957380265</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.95424854205299803</v>
+      </c>
+      <c r="L13" s="3">
+        <v>-8.11642082326125E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1">
+        <v>30</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-3.03</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-7.8639492213154396</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.72810394599999995</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.62128908522049098</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-0.198146957380265</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.82426808401462703</v>
+      </c>
+      <c r="L14" s="3">
+        <v>-7.6844766865841602E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-3.73</v>
-      </c>
-      <c r="G11" s="2">
-        <v>-4.8438115988870596</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.85900994600000002</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.45415850895628901</v>
-      </c>
-      <c r="J11" s="3">
-        <v>-0.198146957380265</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0.44212189128096802</v>
-      </c>
-      <c r="L11" s="3">
-        <v>-0.203651508146418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="1">
-        <v>36</v>
-      </c>
-      <c r="F12" s="2">
-        <v>-4.76</v>
-      </c>
-      <c r="G12" s="2">
-        <v>-5.8439908039150099</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.68189999999999995</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0.61854054720733098</v>
-      </c>
-      <c r="J12" s="3">
-        <v>-0.198146957380265</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0.95424854205299803</v>
-      </c>
-      <c r="L12" s="3">
-        <v>-8.11642082326125E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="1">
-        <v>30</v>
-      </c>
-      <c r="F13" s="2">
-        <v>-3.03</v>
-      </c>
-      <c r="G13" s="2">
-        <v>-7.8639492213154396</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.72810394599999995</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.62128908522049098</v>
-      </c>
-      <c r="J13" s="3">
-        <v>-0.198146957380265</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0.82426808401462703</v>
-      </c>
-      <c r="L13" s="3">
-        <v>-7.6844766865841602E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="1">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2">
-        <v>-2.75</v>
-      </c>
-      <c r="G14" s="2">
-        <v>-11.5322907240114</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1.123275069</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0.41080891814425002</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-0.198146957380265</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0.68533724640199101</v>
-      </c>
-      <c r="L14" s="3">
-        <v>-6.4448096215780501E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1">
         <v>12</v>
       </c>
       <c r="F15" s="2">
+        <v>-2.75</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-11.5322907240114</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1.123275069</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.41080891814425002</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-0.198146957380265</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.68533724640199101</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-6.4448096215780501E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2">
         <v>-3.6</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G16" s="2">
         <v>-4.3420099654692699</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H16" s="3">
         <v>0.68192350800000001</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I16" s="3">
         <v>0.66403714933023394</v>
       </c>
-      <c r="J15" s="3">
-        <v>-0.198146957380265</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="J16" s="3">
+        <v>-0.198146957380265</v>
+      </c>
+      <c r="K16" s="3">
         <v>0.74921478730089397</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L16" s="3">
         <v>-0.15646132705204699</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1">
+        <v>143</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-5.0330000000000004</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-1.8552510917737499</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.42134260234312298</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1.06229825859644</v>
+      </c>
+      <c r="J17" s="3">
+        <v>-0.198146957380265</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.0481598298228001</v>
+      </c>
+      <c r="L17" s="3">
+        <v>-0.20504588324210701</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1">
+        <v>35</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-4.83</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-3.5007109393381</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.62609999999999999</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.77320510123066799</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-0.198146957380265</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.89766941836565495</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-0.151655483530483</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="1">
-        <v>143</v>
-      </c>
-      <c r="F16" s="2">
-        <v>-5.0330000000000004</v>
-      </c>
-      <c r="G16" s="2">
-        <v>-1.8552510917737499</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.42134260234312298</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1.06229825859644</v>
-      </c>
-      <c r="J16" s="3">
-        <v>-0.198146957380265</v>
-      </c>
-      <c r="K16" s="3">
-        <v>1.0481598298228001</v>
-      </c>
-      <c r="L16" s="3">
-        <v>-0.20504588324210701</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1">
         <v>32</v>
-      </c>
-      <c r="E17" s="1">
-        <v>35</v>
-      </c>
-      <c r="F17" s="2">
-        <v>-4.83</v>
-      </c>
-      <c r="G17" s="2">
-        <v>-3.5007109393381</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0.62609999999999999</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0.77320510123066799</v>
-      </c>
-      <c r="J17" s="3">
-        <v>-0.198146957380265</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0.89766941836565495</v>
-      </c>
-      <c r="L17" s="3">
-        <v>-0.151655483530483</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="1">
-        <v>32</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-5.86</v>
-      </c>
-      <c r="G18" s="2">
-        <v>-3.1672336782716002</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0.4768</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0.78526844797055595</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-0.198146957380265</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0.901875218909298</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-0.16629534261253401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="1">
-        <v>12</v>
       </c>
       <c r="F19" s="2">
         <v>-5.86</v>
       </c>
       <c r="G19" s="2">
+        <v>-3.1672336782716002</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.4768</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.78526844797055595</v>
+      </c>
+      <c r="J19" s="3">
+        <v>-0.198146957380265</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.901875218909298</v>
+      </c>
+      <c r="L19" s="3">
+        <v>-0.16629534261253401</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-5.86</v>
+      </c>
+      <c r="G20" s="2">
         <v>-4.9213007391354804</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H20" s="3">
         <v>0.44794739500000003</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I20" s="3">
         <v>0.53962487631034295</v>
       </c>
-      <c r="J19" s="3">
-        <v>-0.198146957380265</v>
-      </c>
-      <c r="K19" s="3">
+      <c r="J20" s="3">
+        <v>-0.198146957380265</v>
+      </c>
+      <c r="K20" s="3">
         <v>0.71200797549467998</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L20" s="3">
         <v>-0.145604483663932</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="1">
-        <v>381</v>
-      </c>
-      <c r="F20" s="2">
-        <v>-5.2685000000000004</v>
-      </c>
-      <c r="G20" s="2">
-        <v>-3.2542244752078902</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0.44019770761429999</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0.76376307204225602</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-0.198146957380265</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0.70248445843947305</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-0.22312135369382299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="1">
-        <v>12</v>
+        <v>381</v>
       </c>
       <c r="F21" s="2">
-        <v>-3.58</v>
+        <v>-5.2685000000000004</v>
       </c>
       <c r="G21" s="2">
-        <v>-3.2207496844195198</v>
+        <v>-3.2542244752078902</v>
       </c>
       <c r="H21" s="3">
-        <v>0.64286876199999998</v>
+        <v>0.44019770761429999</v>
       </c>
       <c r="I21" s="3">
-        <v>0.81094389376234599</v>
+        <v>0.76376307204225602</v>
       </c>
       <c r="J21" s="3">
         <v>-0.198146957380265</v>
       </c>
       <c r="K21" s="3">
-        <v>0.837094362662686</v>
+        <v>0.70248445843947305</v>
       </c>
       <c r="L21" s="3">
-        <v>-0.18364577314717501</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
+        <v>-0.22312135369382299</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E22" s="1">
         <v>12</v>
       </c>
       <c r="F22" s="2">
-        <v>-5.4</v>
+        <v>-3.58</v>
       </c>
       <c r="G22" s="2">
-        <v>-6.7904446981682502</v>
+        <v>-3.2207496844195198</v>
       </c>
       <c r="H22" s="3">
-        <v>0.70696829400000005</v>
+        <v>0.64286876199999998</v>
       </c>
       <c r="I22" s="3">
-        <v>0.47209647159908602</v>
+        <v>0.81094389376234599</v>
       </c>
       <c r="J22" s="3">
         <v>-0.198146957380265</v>
       </c>
       <c r="K22" s="3">
-        <v>0.86050410683654699</v>
+        <v>0.837094362662686</v>
       </c>
       <c r="L22" s="3">
-        <v>-8.3656865932229693E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
+        <v>-0.18364577314717501</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1">
         <v>12</v>
       </c>
       <c r="F23" s="2">
+        <v>-5.4</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-6.7904446981682502</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.70696829400000005</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.47209647159908602</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-0.198146957380265</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.86050410683654699</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-8.3656865932229693E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1">
+        <v>12</v>
+      </c>
+      <c r="F24" s="2">
         <v>-4.75</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G24" s="2">
         <v>-9.9733498492655492</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H24" s="3">
         <v>0.839845336</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I24" s="3">
         <v>0.467347746943923</v>
       </c>
-      <c r="J23" s="3">
-        <v>-0.198146957380265</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="J24" s="3">
+        <v>-0.198146957380265</v>
+      </c>
+      <c r="K24" s="3">
         <v>0.87359415559672504</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L24" s="3">
         <v>-5.5646024792319101E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1">
+        <v>30</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-7.38</v>
+      </c>
+      <c r="G25" s="2">
+        <v>-5.0681108286770096</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.34933446059062101</v>
+      </c>
+      <c r="J25" s="3">
+        <v>-0.198146957380265</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.230336754969798</v>
+      </c>
+      <c r="L25" s="3">
+        <v>-0.236426296524857</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="1">
+        <v>28</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-7.58</v>
+      </c>
+      <c r="G26" s="2">
+        <v>-5.2098338454775002</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.45519999999999999</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.33184366506080298</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-0.198146957380265</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.22060667862856201</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-0.23186243280895899</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C27" t="s">
         <v>28</v>
       </c>
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="1">
-        <v>30</v>
-      </c>
-      <c r="F24" s="2">
-        <v>-7.38</v>
-      </c>
-      <c r="G24" s="2">
-        <v>-5.0681108286770096</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0.34933446059062101</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-0.198146957380265</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0.230336754969798</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-0.236426296524857</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D27" t="s">
         <v>29</v>
       </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="1">
-        <v>28</v>
-      </c>
-      <c r="F25" s="2">
-        <v>-7.58</v>
-      </c>
-      <c r="G25" s="2">
-        <v>-5.2098338454775002</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0.45519999999999999</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0.33184366506080298</v>
-      </c>
-      <c r="J25" s="3">
-        <v>-0.198146957380265</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0.22060667862856201</v>
-      </c>
-      <c r="L25" s="3">
-        <v>-0.23186243280895899</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="E27" s="1">
         <v>12</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F27" s="2">
         <v>-2.93</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G27" s="2">
         <v>-5.55980776682574</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H27" s="3">
         <v>0.92803681599999999</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I27" s="3">
         <v>0.45644102691570698</v>
       </c>
-      <c r="J26" s="3">
-        <v>-0.198146957380265</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="J27" s="3">
+        <v>-0.198146957380265</v>
+      </c>
+      <c r="K27" s="3">
         <v>0.51802896978586199</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L27" s="3">
         <v>-0.16377229159227299</v>
       </c>
     </row>

--- a/results/species-results.xlsx
+++ b/results/species-results.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/My Drive/My_Drive_Cloud/Drive-Projects/Pepperwood/Pepperwood_git_projects/PepperwoodLFM/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/github/pepperwood/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{85176E88-F24A-BD4E-8212-D669B0649558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BD8974-F2FA-0D47-997C-89C92555415C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="760" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="580" yWindow="760" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species-results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -202,9 +215,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -691,7 +704,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1048,11 +1061,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
